--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -11,12 +11,12 @@
     <sheet name="CharacterData" sheetId="1" r:id="rId2"/>
     <sheet name="#欄位說明" sheetId="2" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="107">
   <si>
     <t>int</t>
   </si>
@@ -354,7 +354,15 @@
     <t>女主2</t>
   </si>
   <si>
-    <t>內容暫定</t>
+    <t>n_WeaponType1Raito</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_WeaponType2Raito</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>n_WeaponType3Raito</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -485,7 +493,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -545,19 +553,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -565,7 +560,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -609,9 +604,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -927,13 +919,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC11"/>
+  <dimension ref="A1:AC3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="3" max="3" width="7.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:29" ht="40.5">
       <c r="A1" s="15" t="s">
@@ -969,14 +965,14 @@
       <c r="K1" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="M1" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="N1" s="15" t="s">
-        <v>15</v>
+      <c r="L1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="O1" s="15" t="s">
         <v>16</v>
@@ -1025,892 +1021,180 @@
       </c>
     </row>
     <row r="2" spans="1:29">
-      <c r="A2" s="17">
+      <c r="A2" s="16">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="17" t="s">
         <v>102</v>
       </c>
-      <c r="C2" s="18">
-        <v>101</v>
-      </c>
-      <c r="D2" s="18">
-        <v>201</v>
-      </c>
-      <c r="E2" s="18">
+      <c r="C2" s="17">
+        <v>10101</v>
+      </c>
+      <c r="D2" s="17">
+        <v>10201</v>
+      </c>
+      <c r="E2" s="17">
         <v>100</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="17">
         <v>1</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="17">
         <v>0.5</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="17">
         <v>0.5</v>
       </c>
-      <c r="I2" s="18">
-        <v>0</v>
-      </c>
-      <c r="J2" s="18">
+      <c r="I2" s="17">
+        <v>0</v>
+      </c>
+      <c r="J2" s="17">
         <v>100</v>
       </c>
-      <c r="K2" s="18">
+      <c r="K2" s="17">
         <v>5</v>
       </c>
-      <c r="L2" s="18">
+      <c r="L2" s="17">
         <v>100</v>
       </c>
-      <c r="M2" s="18">
+      <c r="M2" s="17">
         <v>100</v>
       </c>
-      <c r="N2" s="18">
+      <c r="N2" s="17">
         <v>100</v>
       </c>
-      <c r="O2" s="18">
+      <c r="O2" s="17">
         <v>100</v>
       </c>
-      <c r="P2" s="18">
+      <c r="P2" s="17">
         <v>10</v>
       </c>
-      <c r="Q2" s="18">
+      <c r="Q2" s="17">
         <v>150</v>
       </c>
-      <c r="R2" s="18">
-        <v>0</v>
-      </c>
-      <c r="S2" s="18">
-        <v>0</v>
-      </c>
-      <c r="T2" s="18">
-        <v>0</v>
-      </c>
-      <c r="U2" s="18">
-        <v>0</v>
-      </c>
-      <c r="V2" s="18">
-        <v>0</v>
-      </c>
-      <c r="W2" s="18">
-        <v>0</v>
-      </c>
-      <c r="X2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="18">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AB2" s="19">
-        <v>0</v>
-      </c>
-      <c r="AC2" s="19">
+      <c r="R2" s="17">
+        <v>0</v>
+      </c>
+      <c r="S2" s="17">
+        <v>0</v>
+      </c>
+      <c r="T2" s="17">
+        <v>0</v>
+      </c>
+      <c r="U2" s="17">
+        <v>0</v>
+      </c>
+      <c r="V2" s="17">
+        <v>0</v>
+      </c>
+      <c r="W2" s="17">
+        <v>0</v>
+      </c>
+      <c r="X2" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB2" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC2" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:29">
-      <c r="A3" s="17">
+      <c r="A3" s="16">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="17" t="s">
         <v>103</v>
       </c>
-      <c r="C3" s="18">
-        <v>102</v>
-      </c>
-      <c r="D3" s="18">
-        <v>202</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="C3" s="17">
+        <v>10102</v>
+      </c>
+      <c r="D3" s="17">
+        <v>10202</v>
+      </c>
+      <c r="E3" s="17">
         <v>100</v>
       </c>
-      <c r="F3" s="16">
-        <v>0</v>
-      </c>
-      <c r="G3" s="16">
-        <v>0</v>
-      </c>
-      <c r="H3" s="16">
-        <v>0</v>
-      </c>
-      <c r="I3" s="16">
-        <v>0</v>
-      </c>
-      <c r="J3" s="16">
-        <v>0</v>
-      </c>
-      <c r="K3" s="16">
-        <v>0</v>
-      </c>
-      <c r="L3" s="16">
-        <v>0</v>
-      </c>
-      <c r="M3" s="16">
-        <v>0</v>
-      </c>
-      <c r="N3" s="16">
-        <v>0</v>
-      </c>
-      <c r="O3" s="16">
-        <v>0</v>
-      </c>
-      <c r="P3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>0</v>
-      </c>
-      <c r="R3" s="16">
-        <v>0</v>
-      </c>
-      <c r="S3" s="16">
-        <v>0</v>
-      </c>
-      <c r="T3" s="16">
-        <v>0</v>
-      </c>
-      <c r="U3" s="16">
-        <v>0</v>
-      </c>
-      <c r="V3" s="16">
-        <v>0</v>
-      </c>
-      <c r="W3" s="16">
-        <v>0</v>
-      </c>
-      <c r="X3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB3" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC3" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29">
-      <c r="A4" s="16">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="16">
-        <v>0</v>
-      </c>
-      <c r="E4" s="16">
-        <v>0</v>
-      </c>
-      <c r="F4" s="16">
-        <v>0</v>
-      </c>
-      <c r="G4" s="16">
-        <v>0</v>
-      </c>
-      <c r="H4" s="16">
-        <v>0</v>
-      </c>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="16">
-        <v>0</v>
-      </c>
-      <c r="K4" s="16">
-        <v>0</v>
-      </c>
-      <c r="L4" s="16">
-        <v>0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16">
-        <v>0</v>
-      </c>
-      <c r="O4" s="16">
-        <v>0</v>
-      </c>
-      <c r="P4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>0</v>
-      </c>
-      <c r="R4" s="16">
-        <v>0</v>
-      </c>
-      <c r="S4" s="16">
-        <v>0</v>
-      </c>
-      <c r="T4" s="16">
-        <v>0</v>
-      </c>
-      <c r="U4" s="16">
-        <v>0</v>
-      </c>
-      <c r="V4" s="16">
-        <v>0</v>
-      </c>
-      <c r="W4" s="16">
-        <v>0</v>
-      </c>
-      <c r="X4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB4" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:29">
-      <c r="A5" s="5">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="16">
-        <v>0</v>
-      </c>
-      <c r="E5" s="16">
-        <v>0</v>
-      </c>
-      <c r="F5" s="16">
-        <v>0</v>
-      </c>
-      <c r="G5" s="16">
-        <v>0</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="16">
-        <v>0</v>
-      </c>
-      <c r="K5" s="16">
-        <v>0</v>
-      </c>
-      <c r="L5" s="16">
-        <v>0</v>
-      </c>
-      <c r="M5" s="16">
-        <v>0</v>
-      </c>
-      <c r="N5" s="16">
-        <v>0</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0</v>
-      </c>
-      <c r="P5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>0</v>
-      </c>
-      <c r="R5" s="16">
-        <v>0</v>
-      </c>
-      <c r="S5" s="16">
-        <v>0</v>
-      </c>
-      <c r="T5" s="16">
-        <v>0</v>
-      </c>
-      <c r="U5" s="16">
-        <v>0</v>
-      </c>
-      <c r="V5" s="16">
-        <v>0</v>
-      </c>
-      <c r="W5" s="16">
-        <v>0</v>
-      </c>
-      <c r="X5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB5" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:29">
-      <c r="A6" s="5">
+      <c r="F3" s="17">
+        <v>1</v>
+      </c>
+      <c r="G3" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="H3" s="17">
+        <v>0.5</v>
+      </c>
+      <c r="I3" s="17">
+        <v>0</v>
+      </c>
+      <c r="J3" s="17">
+        <v>100</v>
+      </c>
+      <c r="K3" s="17">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="16">
-        <v>0</v>
-      </c>
-      <c r="E6" s="16">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>0</v>
-      </c>
-      <c r="G6" s="16">
-        <v>0</v>
-      </c>
-      <c r="H6" s="16">
-        <v>0</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="16">
-        <v>0</v>
-      </c>
-      <c r="K6" s="16">
-        <v>0</v>
-      </c>
-      <c r="L6" s="16">
-        <v>0</v>
-      </c>
-      <c r="M6" s="16">
-        <v>0</v>
-      </c>
-      <c r="N6" s="16">
-        <v>0</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-      <c r="P6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>0</v>
-      </c>
-      <c r="R6" s="16">
-        <v>0</v>
-      </c>
-      <c r="S6" s="16">
-        <v>0</v>
-      </c>
-      <c r="T6" s="16">
-        <v>0</v>
-      </c>
-      <c r="U6" s="16">
-        <v>0</v>
-      </c>
-      <c r="V6" s="16">
-        <v>0</v>
-      </c>
-      <c r="W6" s="16">
-        <v>0</v>
-      </c>
-      <c r="X6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB6" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:29">
-      <c r="A7" s="5">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="16">
-        <v>0</v>
-      </c>
-      <c r="E7" s="16">
-        <v>0</v>
-      </c>
-      <c r="F7" s="16">
-        <v>0</v>
-      </c>
-      <c r="G7" s="16">
-        <v>0</v>
-      </c>
-      <c r="H7" s="16">
-        <v>0</v>
-      </c>
-      <c r="I7" s="16">
-        <v>0</v>
-      </c>
-      <c r="J7" s="16">
-        <v>0</v>
-      </c>
-      <c r="K7" s="16">
-        <v>0</v>
-      </c>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>0</v>
-      </c>
-      <c r="N7" s="16">
-        <v>0</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>0</v>
-      </c>
-      <c r="R7" s="16">
-        <v>0</v>
-      </c>
-      <c r="S7" s="16">
-        <v>0</v>
-      </c>
-      <c r="T7" s="16">
-        <v>0</v>
-      </c>
-      <c r="U7" s="16">
-        <v>0</v>
-      </c>
-      <c r="V7" s="16">
-        <v>0</v>
-      </c>
-      <c r="W7" s="16">
-        <v>0</v>
-      </c>
-      <c r="X7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB7" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:29">
-      <c r="A8" s="5">
-        <v>7</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C8" s="16">
-        <v>0</v>
-      </c>
-      <c r="D8" s="16">
-        <v>0</v>
-      </c>
-      <c r="E8" s="16">
-        <v>0</v>
-      </c>
-      <c r="F8" s="16">
-        <v>0</v>
-      </c>
-      <c r="G8" s="16">
-        <v>0</v>
-      </c>
-      <c r="H8" s="16">
-        <v>0</v>
-      </c>
-      <c r="I8" s="16">
-        <v>0</v>
-      </c>
-      <c r="J8" s="16">
-        <v>0</v>
-      </c>
-      <c r="K8" s="16">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0</v>
-      </c>
-      <c r="N8" s="16">
-        <v>0</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-      <c r="P8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>0</v>
-      </c>
-      <c r="R8" s="16">
-        <v>0</v>
-      </c>
-      <c r="S8" s="16">
-        <v>0</v>
-      </c>
-      <c r="T8" s="16">
-        <v>0</v>
-      </c>
-      <c r="U8" s="16">
-        <v>0</v>
-      </c>
-      <c r="V8" s="16">
-        <v>0</v>
-      </c>
-      <c r="W8" s="16">
-        <v>0</v>
-      </c>
-      <c r="X8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB8" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:29">
-      <c r="A9" s="5">
-        <v>8</v>
-      </c>
-      <c r="B9" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C9" s="16">
-        <v>0</v>
-      </c>
-      <c r="D9" s="16">
-        <v>0</v>
-      </c>
-      <c r="E9" s="16">
-        <v>0</v>
-      </c>
-      <c r="F9" s="16">
-        <v>0</v>
-      </c>
-      <c r="G9" s="16">
-        <v>0</v>
-      </c>
-      <c r="H9" s="16">
-        <v>0</v>
-      </c>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="16">
-        <v>0</v>
-      </c>
-      <c r="K9" s="16">
-        <v>0</v>
-      </c>
-      <c r="L9" s="16">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-      <c r="P9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>0</v>
-      </c>
-      <c r="R9" s="16">
-        <v>0</v>
-      </c>
-      <c r="S9" s="16">
-        <v>0</v>
-      </c>
-      <c r="T9" s="16">
-        <v>0</v>
-      </c>
-      <c r="U9" s="16">
-        <v>0</v>
-      </c>
-      <c r="V9" s="16">
-        <v>0</v>
-      </c>
-      <c r="W9" s="16">
-        <v>0</v>
-      </c>
-      <c r="X9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB9" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29">
-      <c r="A10" s="5">
-        <v>9</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="16">
-        <v>0</v>
-      </c>
-      <c r="D10" s="16">
-        <v>0</v>
-      </c>
-      <c r="E10" s="16">
-        <v>0</v>
-      </c>
-      <c r="F10" s="16">
-        <v>0</v>
-      </c>
-      <c r="G10" s="16">
-        <v>0</v>
-      </c>
-      <c r="H10" s="16">
-        <v>0</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="16">
-        <v>0</v>
-      </c>
-      <c r="K10" s="16">
-        <v>0</v>
-      </c>
-      <c r="L10" s="16">
-        <v>0</v>
-      </c>
-      <c r="M10" s="16">
-        <v>0</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0</v>
-      </c>
-      <c r="P10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="16">
-        <v>0</v>
-      </c>
-      <c r="R10" s="16">
-        <v>0</v>
-      </c>
-      <c r="S10" s="16">
-        <v>0</v>
-      </c>
-      <c r="T10" s="16">
-        <v>0</v>
-      </c>
-      <c r="U10" s="16">
-        <v>0</v>
-      </c>
-      <c r="V10" s="16">
-        <v>0</v>
-      </c>
-      <c r="W10" s="16">
-        <v>0</v>
-      </c>
-      <c r="X10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB10" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:29">
-      <c r="A11" s="5">
+      <c r="L3" s="17">
+        <v>50</v>
+      </c>
+      <c r="M3" s="17">
+        <v>50</v>
+      </c>
+      <c r="N3" s="17">
+        <v>50</v>
+      </c>
+      <c r="O3" s="17">
+        <v>100</v>
+      </c>
+      <c r="P3" s="17">
         <v>10</v>
       </c>
-      <c r="B11" s="16" t="s">
-        <v>104</v>
-      </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="16">
-        <v>0</v>
-      </c>
-      <c r="E11" s="16">
-        <v>0</v>
-      </c>
-      <c r="F11" s="16">
-        <v>0</v>
-      </c>
-      <c r="G11" s="16">
-        <v>0</v>
-      </c>
-      <c r="H11" s="16">
-        <v>0</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="16">
-        <v>0</v>
-      </c>
-      <c r="K11" s="16">
-        <v>0</v>
-      </c>
-      <c r="L11" s="16">
-        <v>0</v>
-      </c>
-      <c r="M11" s="16">
-        <v>0</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-      <c r="P11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="16">
-        <v>0</v>
-      </c>
-      <c r="R11" s="16">
-        <v>0</v>
-      </c>
-      <c r="S11" s="16">
-        <v>0</v>
-      </c>
-      <c r="T11" s="16">
-        <v>0</v>
-      </c>
-      <c r="U11" s="16">
-        <v>0</v>
-      </c>
-      <c r="V11" s="16">
-        <v>0</v>
-      </c>
-      <c r="W11" s="16">
-        <v>0</v>
-      </c>
-      <c r="X11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="16">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AA11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AB11" s="16">
-        <v>0</v>
-      </c>
-      <c r="AC11" s="16">
+      <c r="Q3" s="17">
+        <v>150</v>
+      </c>
+      <c r="R3" s="17">
+        <v>0</v>
+      </c>
+      <c r="S3" s="17">
+        <v>0</v>
+      </c>
+      <c r="T3" s="17">
+        <v>0</v>
+      </c>
+      <c r="U3" s="17">
+        <v>0</v>
+      </c>
+      <c r="V3" s="17">
+        <v>0</v>
+      </c>
+      <c r="W3" s="17">
+        <v>0</v>
+      </c>
+      <c r="X3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="17">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AB3" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC3" s="18">
         <v>0</v>
       </c>
     </row>
@@ -1925,8 +1209,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC35"/>
   <sheetViews>
-    <sheetView topLeftCell="M1" workbookViewId="0">
-      <selection sqref="A1:AC13"/>
+    <sheetView topLeftCell="K1" workbookViewId="0">
+      <selection activeCell="L35" sqref="L35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="19.625" defaultRowHeight="15.75"/>
@@ -2083,13 +1367,13 @@
         <v>12</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>13</v>
+        <v>104</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>14</v>
+        <v>105</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>15</v>
+        <v>106</v>
       </c>
       <c r="O2" s="2" t="s">
         <v>16</v>

--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2095,7 +2095,7 @@
   </sheetPr>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView topLeftCell="T1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>

--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1151,10 +1151,10 @@
         <v>1</v>
       </c>
       <c r="G2" s="5">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="H2" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I2" s="5">
         <v>0</v>
@@ -1246,10 +1246,10 @@
         <v>2</v>
       </c>
       <c r="G3" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H3" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5">
         <v>0</v>
@@ -1341,10 +1341,10 @@
         <v>5</v>
       </c>
       <c r="G4" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="H4" s="5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I4" s="5">
         <v>0</v>

--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -1002,7 +1002,7 @@
   <dimension ref="A1:AE11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="G3" sqref="G3:H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -1001,8 +1001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3:H11"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1017,6 +1017,7 @@
     <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="19" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="12.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="7.25" bestFit="1" customWidth="1"/>

--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDataInUnity" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="131">
   <si>
     <t>int</t>
   </si>
@@ -442,6 +442,10 @@
   </si>
   <si>
     <t>模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>偷取生命機率(%)</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1001,8 +1005,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AE11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -2096,8 +2100,8 @@
   </sheetPr>
   <dimension ref="A1:AH18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="U4" sqref="U4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2383,7 +2387,7 @@
         <v>47</v>
       </c>
       <c r="U3" s="3" t="s">
-        <v>48</v>
+        <v>130</v>
       </c>
       <c r="V3" s="3" t="s">
         <v>49</v>

--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="CharacterDataInUnity" sheetId="3" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="146">
   <si>
     <t>int</t>
   </si>
@@ -433,19 +433,79 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <t>s_prefabName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>模型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_TextureName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_IconTextureName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_IconTextureName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>string</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>s_prefabName</t>
+    <t>角色縮圖</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>模型</t>
+    <t>角色大圖</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>偷取生命機率(%)</t>
+    <t>s_TextureName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>character01_idle01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>character01</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_IconTextureName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>s_TextureName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色縮圖名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>角色大圖名稱</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示介面上的角色縮圖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>顯示介面上的角色大圖</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>char2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1003,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE11"/>
+  <dimension ref="A1:AG11"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1014,34 +1074,36 @@
     <col min="1" max="1" width="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="12" max="14" width="19" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="7.25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="14.625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="10.25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.25" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="18.875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="11.75" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="6.25" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="14.125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="8.25" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="13.125" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="13.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="11.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="14" max="16" width="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="7.25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="14.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="10.25" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="18.875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.75" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="6.25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="14.125" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="8.25" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="10" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="11.5" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="13.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1052,91 +1114,97 @@
         <v>5</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="E1" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="S1" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="R1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1146,17 +1214,17 @@
       <c r="C2" s="18">
         <v>20301</v>
       </c>
-      <c r="D2" s="18">
-        <v>0</v>
-      </c>
-      <c r="E2" s="5">
-        <v>100</v>
-      </c>
-      <c r="F2" s="5">
-        <v>1</v>
+      <c r="D2" s="18" t="s">
+        <v>137</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="F2" s="18">
+        <v>0</v>
       </c>
       <c r="G2" s="5">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="H2" s="5">
         <v>1</v>
@@ -1165,32 +1233,32 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K2" s="5">
+        <v>0</v>
+      </c>
+      <c r="L2" s="5">
+        <v>100</v>
+      </c>
+      <c r="M2" s="5">
         <v>10</v>
       </c>
-      <c r="L2" s="5">
-        <v>100</v>
-      </c>
-      <c r="M2" s="5">
-        <v>100</v>
-      </c>
       <c r="N2" s="5">
         <v>100</v>
       </c>
       <c r="O2" s="5">
+        <v>100</v>
+      </c>
+      <c r="P2" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q2" s="5">
         <v>5</v>
       </c>
-      <c r="P2" s="5">
+      <c r="R2" s="5">
         <v>150</v>
       </c>
-      <c r="Q2" s="5">
-        <v>0</v>
-      </c>
-      <c r="R2" s="5">
-        <v>0</v>
-      </c>
       <c r="S2" s="5">
         <v>0</v>
       </c>
@@ -1230,8 +1298,14 @@
       <c r="AE2" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF2" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG2" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>2</v>
       </c>
@@ -1241,51 +1315,51 @@
       <c r="C3" s="18">
         <v>20302</v>
       </c>
-      <c r="D3" s="18">
-        <v>0</v>
-      </c>
-      <c r="E3" s="5">
-        <v>100</v>
-      </c>
-      <c r="F3" s="5">
+      <c r="D3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>145</v>
+      </c>
+      <c r="F3" s="18">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>100</v>
+      </c>
+      <c r="H3" s="5">
         <v>2</v>
       </c>
-      <c r="G3" s="5">
-        <v>1</v>
-      </c>
-      <c r="H3" s="5">
-        <v>1</v>
-      </c>
       <c r="I3" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J3" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K3" s="5">
+        <v>0</v>
+      </c>
+      <c r="L3" s="5">
+        <v>100</v>
+      </c>
+      <c r="M3" s="5">
         <v>10</v>
       </c>
-      <c r="L3" s="5">
-        <v>100</v>
-      </c>
-      <c r="M3" s="5">
-        <v>100</v>
-      </c>
       <c r="N3" s="5">
         <v>100</v>
       </c>
       <c r="O3" s="5">
+        <v>100</v>
+      </c>
+      <c r="P3" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q3" s="5">
         <v>5</v>
       </c>
-      <c r="P3" s="5">
+      <c r="R3" s="5">
         <v>150</v>
       </c>
-      <c r="Q3" s="5">
-        <v>0</v>
-      </c>
-      <c r="R3" s="5">
-        <v>0</v>
-      </c>
       <c r="S3" s="5">
         <v>0</v>
       </c>
@@ -1325,8 +1399,14 @@
       <c r="AE3" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF3" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG3" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>101</v>
       </c>
@@ -1339,48 +1419,48 @@
       <c r="D4" s="18">
         <v>0</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="18">
+        <v>0</v>
+      </c>
+      <c r="F4" s="18">
+        <v>0</v>
+      </c>
+      <c r="G4" s="5">
         <v>10</v>
       </c>
-      <c r="F4" s="5">
+      <c r="H4" s="5">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
       <c r="I4" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J4" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K4" s="5">
+        <v>0</v>
+      </c>
+      <c r="L4" s="5">
+        <v>100</v>
+      </c>
+      <c r="M4" s="5">
         <v>10</v>
       </c>
-      <c r="L4" s="5">
-        <v>100</v>
-      </c>
-      <c r="M4" s="5">
-        <v>100</v>
-      </c>
       <c r="N4" s="5">
         <v>100</v>
       </c>
       <c r="O4" s="5">
+        <v>100</v>
+      </c>
+      <c r="P4" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q4" s="5">
         <v>5</v>
       </c>
-      <c r="P4" s="5">
+      <c r="R4" s="5">
         <v>150</v>
       </c>
-      <c r="Q4" s="5">
-        <v>0</v>
-      </c>
-      <c r="R4" s="5">
-        <v>0</v>
-      </c>
       <c r="S4" s="5">
         <v>0</v>
       </c>
@@ -1420,8 +1500,14 @@
       <c r="AE4" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF4" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG4" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A5" s="17">
         <v>102</v>
       </c>
@@ -1434,48 +1520,48 @@
       <c r="D5" s="18">
         <v>0</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="18">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>0</v>
+      </c>
+      <c r="G5" s="5">
         <v>20</v>
       </c>
-      <c r="F5" s="5">
-        <v>1</v>
-      </c>
-      <c r="G5" s="5">
-        <v>1</v>
-      </c>
       <c r="H5" s="5">
         <v>1</v>
       </c>
       <c r="I5" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J5" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K5" s="5">
+        <v>0</v>
+      </c>
+      <c r="L5" s="5">
+        <v>100</v>
+      </c>
+      <c r="M5" s="5">
         <v>10</v>
       </c>
-      <c r="L5" s="5">
-        <v>100</v>
-      </c>
-      <c r="M5" s="5">
-        <v>100</v>
-      </c>
       <c r="N5" s="5">
         <v>100</v>
       </c>
       <c r="O5" s="5">
+        <v>100</v>
+      </c>
+      <c r="P5" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q5" s="5">
         <v>5</v>
       </c>
-      <c r="P5" s="5">
+      <c r="R5" s="5">
         <v>150</v>
       </c>
-      <c r="Q5" s="5">
-        <v>0</v>
-      </c>
-      <c r="R5" s="5">
-        <v>0</v>
-      </c>
       <c r="S5" s="5">
         <v>0</v>
       </c>
@@ -1515,8 +1601,14 @@
       <c r="AE5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A6" s="17">
         <v>103</v>
       </c>
@@ -1529,48 +1621,48 @@
       <c r="D6" s="18">
         <v>0</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="18">
+        <v>0</v>
+      </c>
+      <c r="F6" s="18">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
         <v>30</v>
       </c>
-      <c r="F6" s="5">
-        <v>1</v>
-      </c>
-      <c r="G6" s="5">
-        <v>1</v>
-      </c>
       <c r="H6" s="5">
         <v>1</v>
       </c>
       <c r="I6" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J6" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K6" s="5">
+        <v>0</v>
+      </c>
+      <c r="L6" s="5">
+        <v>100</v>
+      </c>
+      <c r="M6" s="5">
         <v>10</v>
       </c>
-      <c r="L6" s="5">
-        <v>100</v>
-      </c>
-      <c r="M6" s="5">
-        <v>100</v>
-      </c>
       <c r="N6" s="5">
         <v>100</v>
       </c>
       <c r="O6" s="5">
+        <v>100</v>
+      </c>
+      <c r="P6" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q6" s="5">
         <v>5</v>
       </c>
-      <c r="P6" s="5">
+      <c r="R6" s="5">
         <v>150</v>
       </c>
-      <c r="Q6" s="5">
-        <v>0</v>
-      </c>
-      <c r="R6" s="5">
-        <v>0</v>
-      </c>
       <c r="S6" s="5">
         <v>0</v>
       </c>
@@ -1610,8 +1702,14 @@
       <c r="AE6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>104</v>
       </c>
@@ -1624,48 +1722,48 @@
       <c r="D7" s="18">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="18">
+        <v>0</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0</v>
+      </c>
+      <c r="G7" s="5">
         <v>40</v>
       </c>
-      <c r="F7" s="5">
-        <v>1</v>
-      </c>
-      <c r="G7" s="5">
-        <v>1</v>
-      </c>
       <c r="H7" s="5">
         <v>1</v>
       </c>
       <c r="I7" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J7" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K7" s="5">
+        <v>0</v>
+      </c>
+      <c r="L7" s="5">
+        <v>100</v>
+      </c>
+      <c r="M7" s="5">
         <v>10</v>
       </c>
-      <c r="L7" s="5">
-        <v>100</v>
-      </c>
-      <c r="M7" s="5">
-        <v>100</v>
-      </c>
       <c r="N7" s="5">
         <v>100</v>
       </c>
       <c r="O7" s="5">
+        <v>100</v>
+      </c>
+      <c r="P7" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q7" s="5">
         <v>5</v>
       </c>
-      <c r="P7" s="5">
+      <c r="R7" s="5">
         <v>150</v>
       </c>
-      <c r="Q7" s="5">
-        <v>0</v>
-      </c>
-      <c r="R7" s="5">
-        <v>0</v>
-      </c>
       <c r="S7" s="5">
         <v>0</v>
       </c>
@@ -1705,8 +1803,14 @@
       <c r="AE7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A8" s="17">
         <v>105</v>
       </c>
@@ -1719,48 +1823,48 @@
       <c r="D8" s="18">
         <v>0</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="18">
+        <v>0</v>
+      </c>
+      <c r="F8" s="18">
+        <v>0</v>
+      </c>
+      <c r="G8" s="5">
         <v>50</v>
       </c>
-      <c r="F8" s="5">
-        <v>1</v>
-      </c>
-      <c r="G8" s="5">
-        <v>1</v>
-      </c>
       <c r="H8" s="5">
         <v>1</v>
       </c>
       <c r="I8" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J8" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K8" s="5">
+        <v>0</v>
+      </c>
+      <c r="L8" s="5">
+        <v>100</v>
+      </c>
+      <c r="M8" s="5">
         <v>10</v>
       </c>
-      <c r="L8" s="5">
-        <v>100</v>
-      </c>
-      <c r="M8" s="5">
-        <v>100</v>
-      </c>
       <c r="N8" s="5">
         <v>100</v>
       </c>
       <c r="O8" s="5">
+        <v>100</v>
+      </c>
+      <c r="P8" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q8" s="5">
         <v>5</v>
       </c>
-      <c r="P8" s="5">
+      <c r="R8" s="5">
         <v>150</v>
       </c>
-      <c r="Q8" s="5">
-        <v>0</v>
-      </c>
-      <c r="R8" s="5">
-        <v>0</v>
-      </c>
       <c r="S8" s="5">
         <v>0</v>
       </c>
@@ -1800,8 +1904,14 @@
       <c r="AE8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A9" s="17">
         <v>106</v>
       </c>
@@ -1814,48 +1924,48 @@
       <c r="D9" s="18">
         <v>0</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="18">
+        <v>0</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0</v>
+      </c>
+      <c r="G9" s="5">
         <v>60</v>
       </c>
-      <c r="F9" s="5">
-        <v>1</v>
-      </c>
-      <c r="G9" s="5">
-        <v>1</v>
-      </c>
       <c r="H9" s="5">
         <v>1</v>
       </c>
       <c r="I9" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J9" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K9" s="5">
+        <v>0</v>
+      </c>
+      <c r="L9" s="5">
+        <v>100</v>
+      </c>
+      <c r="M9" s="5">
         <v>10</v>
       </c>
-      <c r="L9" s="5">
-        <v>100</v>
-      </c>
-      <c r="M9" s="5">
-        <v>100</v>
-      </c>
       <c r="N9" s="5">
         <v>100</v>
       </c>
       <c r="O9" s="5">
+        <v>100</v>
+      </c>
+      <c r="P9" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q9" s="5">
         <v>5</v>
       </c>
-      <c r="P9" s="5">
+      <c r="R9" s="5">
         <v>150</v>
       </c>
-      <c r="Q9" s="5">
-        <v>0</v>
-      </c>
-      <c r="R9" s="5">
-        <v>0</v>
-      </c>
       <c r="S9" s="5">
         <v>0</v>
       </c>
@@ -1895,8 +2005,14 @@
       <c r="AE9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A10" s="17">
         <v>107</v>
       </c>
@@ -1909,48 +2025,48 @@
       <c r="D10" s="18">
         <v>0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="18">
+        <v>0</v>
+      </c>
+      <c r="F10" s="18">
+        <v>0</v>
+      </c>
+      <c r="G10" s="5">
         <v>70</v>
       </c>
-      <c r="F10" s="5">
-        <v>1</v>
-      </c>
-      <c r="G10" s="5">
-        <v>1</v>
-      </c>
       <c r="H10" s="5">
         <v>1</v>
       </c>
       <c r="I10" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J10" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K10" s="5">
+        <v>0</v>
+      </c>
+      <c r="L10" s="5">
+        <v>100</v>
+      </c>
+      <c r="M10" s="5">
         <v>10</v>
       </c>
-      <c r="L10" s="5">
-        <v>100</v>
-      </c>
-      <c r="M10" s="5">
-        <v>100</v>
-      </c>
       <c r="N10" s="5">
         <v>100</v>
       </c>
       <c r="O10" s="5">
+        <v>100</v>
+      </c>
+      <c r="P10" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q10" s="5">
         <v>5</v>
       </c>
-      <c r="P10" s="5">
+      <c r="R10" s="5">
         <v>150</v>
       </c>
-      <c r="Q10" s="5">
-        <v>0</v>
-      </c>
-      <c r="R10" s="5">
-        <v>0</v>
-      </c>
       <c r="S10" s="5">
         <v>0</v>
       </c>
@@ -1990,8 +2106,14 @@
       <c r="AE10" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.25">
+      <c r="AF10" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG10" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A11" s="17">
         <v>108</v>
       </c>
@@ -2004,48 +2126,48 @@
       <c r="D11" s="18">
         <v>0</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="18">
+        <v>0</v>
+      </c>
+      <c r="F11" s="18">
+        <v>0</v>
+      </c>
+      <c r="G11" s="5">
         <v>80</v>
       </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
-      <c r="G11" s="5">
-        <v>1</v>
-      </c>
       <c r="H11" s="5">
         <v>1</v>
       </c>
       <c r="I11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J11" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="K11" s="5">
+        <v>0</v>
+      </c>
+      <c r="L11" s="5">
+        <v>100</v>
+      </c>
+      <c r="M11" s="5">
         <v>10</v>
       </c>
-      <c r="L11" s="5">
-        <v>100</v>
-      </c>
-      <c r="M11" s="5">
-        <v>100</v>
-      </c>
       <c r="N11" s="5">
         <v>100</v>
       </c>
       <c r="O11" s="5">
+        <v>100</v>
+      </c>
+      <c r="P11" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q11" s="5">
         <v>5</v>
       </c>
-      <c r="P11" s="5">
+      <c r="R11" s="5">
         <v>150</v>
       </c>
-      <c r="Q11" s="5">
-        <v>0</v>
-      </c>
-      <c r="R11" s="5">
-        <v>0</v>
-      </c>
       <c r="S11" s="5">
         <v>0</v>
       </c>
@@ -2083,6 +2205,12 @@
         <v>0</v>
       </c>
       <c r="AE11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG11" s="5">
         <v>0</v>
       </c>
     </row>
@@ -2098,10 +2226,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:AH18"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="U4" sqref="U4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.75" defaultRowHeight="15.75" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -2112,12 +2240,14 @@
     <col min="4" max="4" width="11.25" style="4" customWidth="1"/>
     <col min="5" max="5" width="8" style="4" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12.125" style="4" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.625" style="4" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.375" style="4" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="17.75" style="4"/>
+    <col min="7" max="7" width="17.625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="13.375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="4" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="17.75" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2137,13 +2267,13 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>127</v>
+        <v>2</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>0</v>
+        <v>132</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>0</v>
@@ -2220,8 +2350,14 @@
       <c r="AH1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -2241,91 +2377,97 @@
         <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H2" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="J2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="K2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="K2" s="2" t="s">
+      <c r="M2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L2" s="2" t="s">
+      <c r="N2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="M2" s="2" t="s">
+      <c r="O2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="2" t="s">
+      <c r="P2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="2" t="s">
+      <c r="Q2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="P2" s="2" t="s">
+      <c r="R2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="2" t="s">
+      <c r="S2" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="R2" s="2" t="s">
+      <c r="T2" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="S2" s="2" t="s">
+      <c r="U2" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="T2" s="2" t="s">
+      <c r="V2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="U2" s="2" t="s">
+      <c r="W2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="V2" s="2" t="s">
+      <c r="X2" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="W2" s="2" t="s">
+      <c r="Y2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="X2" s="2" t="s">
+      <c r="Z2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="Y2" s="2" t="s">
+      <c r="AA2" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="Z2" s="2" t="s">
+      <c r="AB2" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="AA2" s="2" t="s">
+      <c r="AC2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="AB2" s="2" t="s">
+      <c r="AD2" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="AC2" s="2" t="s">
+      <c r="AE2" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="AD2" s="2" t="s">
+      <c r="AF2" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="AE2" s="2" t="s">
+      <c r="AG2" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AF2" s="2" t="s">
+      <c r="AH2" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="AG2" s="2" t="s">
+      <c r="AI2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="AH2" s="2" t="s">
+      <c r="AJ2" s="2" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:36" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>31</v>
       </c>
@@ -2345,91 +2487,97 @@
         <v>34</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="H3" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="J3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="K3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="L3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="M3" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="N3" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="O3" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="N3" s="3" t="s">
+      <c r="P3" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="3" t="s">
+      <c r="Q3" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="P3" s="3" t="s">
+      <c r="R3" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="Q3" s="3" t="s">
+      <c r="S3" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="R3" s="3" t="s">
+      <c r="T3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="S3" s="3" t="s">
+      <c r="U3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="T3" s="3" t="s">
+      <c r="V3" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="U3" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="V3" s="3" t="s">
+      <c r="W3" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="X3" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="W3" s="3" t="s">
+      <c r="Y3" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="Y3" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="Z3" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="AA3" s="3" t="s">
+      <c r="AC3" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="AB3" s="3" t="s">
+      <c r="AD3" s="3" t="s">
         <v>126</v>
       </c>
-      <c r="AC3" s="3" t="s">
+      <c r="AE3" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="AD3" s="3" t="s">
+      <c r="AF3" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="AE3" s="3" t="s">
+      <c r="AG3" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="AF3" s="3" t="s">
+      <c r="AH3" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="AG3" s="3" t="s">
+      <c r="AI3" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="AH3" s="3" t="s">
+      <c r="AJ3" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="4" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
         <v>101</v>
       </c>
@@ -2470,8 +2618,10 @@
       <c r="AF4" s="15"/>
       <c r="AG4" s="15"/>
       <c r="AH4" s="15"/>
-    </row>
-    <row r="5" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI4" s="15"/>
+      <c r="AJ4" s="15"/>
+    </row>
+    <row r="5" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <f>B5+C5</f>
         <v>1</v>
@@ -2495,48 +2645,44 @@
         <v>20501</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="5">
-        <v>100</v>
-      </c>
-      <c r="I5" s="5">
-        <v>1</v>
-      </c>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
       <c r="J5" s="5">
+        <v>100</v>
+      </c>
+      <c r="K5" s="5">
+        <v>1</v>
+      </c>
+      <c r="L5" s="5">
         <v>0.5</v>
       </c>
-      <c r="K5" s="5">
+      <c r="M5" s="5">
         <v>0.5</v>
       </c>
-      <c r="L5" s="5">
-        <v>0</v>
-      </c>
-      <c r="M5" s="5">
-        <v>100</v>
-      </c>
       <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>100</v>
+      </c>
+      <c r="P5" s="5">
         <v>10</v>
       </c>
-      <c r="O5" s="5">
-        <v>100</v>
-      </c>
-      <c r="P5" s="5">
-        <v>100</v>
-      </c>
       <c r="Q5" s="5">
         <v>100</v>
       </c>
       <c r="R5" s="5">
+        <v>100</v>
+      </c>
+      <c r="S5" s="5">
+        <v>100</v>
+      </c>
+      <c r="T5" s="5">
         <v>5</v>
       </c>
-      <c r="S5" s="5">
+      <c r="U5" s="5">
         <v>150</v>
       </c>
-      <c r="T5" s="5">
-        <v>0</v>
-      </c>
-      <c r="U5" s="5">
-        <v>0</v>
-      </c>
       <c r="V5" s="5">
         <v>0</v>
       </c>
@@ -2576,8 +2722,14 @@
       <c r="AH5" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI5" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ5" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <f t="shared" ref="A6:A18" si="0">B6+C6</f>
         <v>2</v>
@@ -2602,48 +2754,44 @@
         <v>20502</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="5">
-        <v>100</v>
-      </c>
-      <c r="I6" s="5">
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5">
+        <v>100</v>
+      </c>
+      <c r="K6" s="5">
         <v>2</v>
       </c>
-      <c r="J6" s="5">
+      <c r="L6" s="5">
         <v>0.5</v>
       </c>
-      <c r="K6" s="5">
+      <c r="M6" s="5">
         <v>0.5</v>
       </c>
-      <c r="L6" s="5">
-        <v>0</v>
-      </c>
-      <c r="M6" s="5">
-        <v>100</v>
-      </c>
       <c r="N6" s="5">
+        <v>0</v>
+      </c>
+      <c r="O6" s="5">
+        <v>100</v>
+      </c>
+      <c r="P6" s="5">
         <v>10</v>
       </c>
-      <c r="O6" s="5">
-        <v>100</v>
-      </c>
-      <c r="P6" s="5">
-        <v>100</v>
-      </c>
       <c r="Q6" s="5">
         <v>100</v>
       </c>
       <c r="R6" s="5">
+        <v>100</v>
+      </c>
+      <c r="S6" s="5">
+        <v>100</v>
+      </c>
+      <c r="T6" s="5">
         <v>5</v>
       </c>
-      <c r="S6" s="5">
+      <c r="U6" s="5">
         <v>150</v>
       </c>
-      <c r="T6" s="5">
-        <v>0</v>
-      </c>
-      <c r="U6" s="5">
-        <v>0</v>
-      </c>
       <c r="V6" s="5">
         <v>0</v>
       </c>
@@ -2683,8 +2831,14 @@
       <c r="AH6" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI6" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ6" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -2709,48 +2863,44 @@
         <v>20503</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="5">
-        <v>100</v>
-      </c>
-      <c r="I7" s="5">
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5">
+        <v>100</v>
+      </c>
+      <c r="K7" s="5">
         <v>3</v>
       </c>
-      <c r="J7" s="5">
+      <c r="L7" s="5">
         <v>0.5</v>
       </c>
-      <c r="K7" s="5">
+      <c r="M7" s="5">
         <v>0.5</v>
       </c>
-      <c r="L7" s="5">
-        <v>0</v>
-      </c>
-      <c r="M7" s="5">
-        <v>100</v>
-      </c>
       <c r="N7" s="5">
+        <v>0</v>
+      </c>
+      <c r="O7" s="5">
+        <v>100</v>
+      </c>
+      <c r="P7" s="5">
         <v>10</v>
       </c>
-      <c r="O7" s="5">
-        <v>100</v>
-      </c>
-      <c r="P7" s="5">
-        <v>100</v>
-      </c>
       <c r="Q7" s="5">
         <v>100</v>
       </c>
       <c r="R7" s="5">
+        <v>100</v>
+      </c>
+      <c r="S7" s="5">
+        <v>100</v>
+      </c>
+      <c r="T7" s="5">
         <v>5</v>
       </c>
-      <c r="S7" s="5">
+      <c r="U7" s="5">
         <v>150</v>
       </c>
-      <c r="T7" s="5">
-        <v>0</v>
-      </c>
-      <c r="U7" s="5">
-        <v>0</v>
-      </c>
       <c r="V7" s="5">
         <v>0</v>
       </c>
@@ -2790,8 +2940,14 @@
       <c r="AH7" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI7" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ7" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -2816,48 +2972,44 @@
         <v>20504</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="5">
-        <v>100</v>
-      </c>
-      <c r="I8" s="5">
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
+      <c r="J8" s="5">
+        <v>100</v>
+      </c>
+      <c r="K8" s="5">
         <v>4</v>
       </c>
-      <c r="J8" s="5">
+      <c r="L8" s="5">
         <v>0.5</v>
       </c>
-      <c r="K8" s="5">
+      <c r="M8" s="5">
         <v>0.5</v>
       </c>
-      <c r="L8" s="5">
-        <v>0</v>
-      </c>
-      <c r="M8" s="5">
-        <v>100</v>
-      </c>
       <c r="N8" s="5">
+        <v>0</v>
+      </c>
+      <c r="O8" s="5">
+        <v>100</v>
+      </c>
+      <c r="P8" s="5">
         <v>10</v>
       </c>
-      <c r="O8" s="5">
-        <v>100</v>
-      </c>
-      <c r="P8" s="5">
-        <v>100</v>
-      </c>
       <c r="Q8" s="5">
         <v>100</v>
       </c>
       <c r="R8" s="5">
+        <v>100</v>
+      </c>
+      <c r="S8" s="5">
+        <v>100</v>
+      </c>
+      <c r="T8" s="5">
         <v>5</v>
       </c>
-      <c r="S8" s="5">
+      <c r="U8" s="5">
         <v>150</v>
       </c>
-      <c r="T8" s="5">
-        <v>0</v>
-      </c>
-      <c r="U8" s="5">
-        <v>0</v>
-      </c>
       <c r="V8" s="5">
         <v>0</v>
       </c>
@@ -2897,8 +3049,14 @@
       <c r="AH8" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI8" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ8" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -2923,48 +3081,44 @@
         <v>20505</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="5">
-        <v>100</v>
-      </c>
-      <c r="I9" s="5">
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5">
+        <v>100</v>
+      </c>
+      <c r="K9" s="5">
         <v>5</v>
       </c>
-      <c r="J9" s="5">
+      <c r="L9" s="5">
         <v>0.5</v>
       </c>
-      <c r="K9" s="5">
+      <c r="M9" s="5">
         <v>0.5</v>
       </c>
-      <c r="L9" s="5">
-        <v>0</v>
-      </c>
-      <c r="M9" s="5">
-        <v>100</v>
-      </c>
       <c r="N9" s="5">
+        <v>0</v>
+      </c>
+      <c r="O9" s="5">
+        <v>100</v>
+      </c>
+      <c r="P9" s="5">
         <v>10</v>
       </c>
-      <c r="O9" s="5">
-        <v>100</v>
-      </c>
-      <c r="P9" s="5">
-        <v>100</v>
-      </c>
       <c r="Q9" s="5">
         <v>100</v>
       </c>
       <c r="R9" s="5">
+        <v>100</v>
+      </c>
+      <c r="S9" s="5">
+        <v>100</v>
+      </c>
+      <c r="T9" s="5">
         <v>5</v>
       </c>
-      <c r="S9" s="5">
+      <c r="U9" s="5">
         <v>150</v>
       </c>
-      <c r="T9" s="5">
-        <v>0</v>
-      </c>
-      <c r="U9" s="5">
-        <v>0</v>
-      </c>
       <c r="V9" s="5">
         <v>0</v>
       </c>
@@ -3004,8 +3158,14 @@
       <c r="AH9" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:34" s="16" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="AI9" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ9" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:36" s="16" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
         <v>101</v>
       </c>
@@ -3046,8 +3206,10 @@
       <c r="AF10" s="15"/>
       <c r="AG10" s="15"/>
       <c r="AH10" s="15"/>
-    </row>
-    <row r="11" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI10" s="15"/>
+      <c r="AJ10" s="15"/>
+    </row>
+    <row r="11" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="0"/>
         <v>101</v>
@@ -3071,48 +3233,44 @@
         <v>20601</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="5">
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5">
         <v>10</v>
       </c>
-      <c r="I11" s="5">
-        <v>1</v>
-      </c>
-      <c r="J11" s="5">
-        <v>1</v>
-      </c>
       <c r="K11" s="5">
         <v>1</v>
       </c>
       <c r="L11" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M11" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N11" s="5">
+        <v>0</v>
+      </c>
+      <c r="O11" s="5">
+        <v>100</v>
+      </c>
+      <c r="P11" s="5">
         <v>10</v>
       </c>
-      <c r="O11" s="5">
-        <v>100</v>
-      </c>
-      <c r="P11" s="5">
-        <v>100</v>
-      </c>
       <c r="Q11" s="5">
         <v>100</v>
       </c>
       <c r="R11" s="5">
+        <v>100</v>
+      </c>
+      <c r="S11" s="5">
+        <v>100</v>
+      </c>
+      <c r="T11" s="5">
         <v>5</v>
       </c>
-      <c r="S11" s="5">
+      <c r="U11" s="5">
         <v>150</v>
       </c>
-      <c r="T11" s="5">
-        <v>0</v>
-      </c>
-      <c r="U11" s="5">
-        <v>0</v>
-      </c>
       <c r="V11" s="5">
         <v>0</v>
       </c>
@@ -3152,8 +3310,14 @@
       <c r="AH11" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI11" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="0"/>
         <v>102</v>
@@ -3178,48 +3342,44 @@
         <v>20602</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="5">
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5">
         <v>20</v>
       </c>
-      <c r="I12" s="5">
-        <v>1</v>
-      </c>
-      <c r="J12" s="5">
-        <v>1</v>
-      </c>
       <c r="K12" s="5">
         <v>1</v>
       </c>
       <c r="L12" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M12" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N12" s="5">
+        <v>0</v>
+      </c>
+      <c r="O12" s="5">
+        <v>100</v>
+      </c>
+      <c r="P12" s="5">
         <v>10</v>
       </c>
-      <c r="O12" s="5">
-        <v>100</v>
-      </c>
-      <c r="P12" s="5">
-        <v>100</v>
-      </c>
       <c r="Q12" s="5">
         <v>100</v>
       </c>
       <c r="R12" s="5">
+        <v>100</v>
+      </c>
+      <c r="S12" s="5">
+        <v>100</v>
+      </c>
+      <c r="T12" s="5">
         <v>5</v>
       </c>
-      <c r="S12" s="5">
+      <c r="U12" s="5">
         <v>150</v>
       </c>
-      <c r="T12" s="5">
-        <v>0</v>
-      </c>
-      <c r="U12" s="5">
-        <v>0</v>
-      </c>
       <c r="V12" s="5">
         <v>0</v>
       </c>
@@ -3259,8 +3419,14 @@
       <c r="AH12" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A13" s="5">
         <f t="shared" si="0"/>
         <v>103</v>
@@ -3285,48 +3451,44 @@
         <v>20603</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="5">
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5">
         <v>30</v>
       </c>
-      <c r="I13" s="5">
-        <v>1</v>
-      </c>
-      <c r="J13" s="5">
-        <v>1</v>
-      </c>
       <c r="K13" s="5">
         <v>1</v>
       </c>
       <c r="L13" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M13" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N13" s="5">
+        <v>0</v>
+      </c>
+      <c r="O13" s="5">
+        <v>100</v>
+      </c>
+      <c r="P13" s="5">
         <v>10</v>
       </c>
-      <c r="O13" s="5">
-        <v>100</v>
-      </c>
-      <c r="P13" s="5">
-        <v>100</v>
-      </c>
       <c r="Q13" s="5">
         <v>100</v>
       </c>
       <c r="R13" s="5">
+        <v>100</v>
+      </c>
+      <c r="S13" s="5">
+        <v>100</v>
+      </c>
+      <c r="T13" s="5">
         <v>5</v>
       </c>
-      <c r="S13" s="5">
+      <c r="U13" s="5">
         <v>150</v>
       </c>
-      <c r="T13" s="5">
-        <v>0</v>
-      </c>
-      <c r="U13" s="5">
-        <v>0</v>
-      </c>
       <c r="V13" s="5">
         <v>0</v>
       </c>
@@ -3366,8 +3528,14 @@
       <c r="AH13" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ13" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A14" s="5">
         <f t="shared" si="0"/>
         <v>104</v>
@@ -3392,48 +3560,44 @@
         <v>20604</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="5">
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5">
         <v>40</v>
       </c>
-      <c r="I14" s="5">
-        <v>1</v>
-      </c>
-      <c r="J14" s="5">
-        <v>1</v>
-      </c>
       <c r="K14" s="5">
         <v>1</v>
       </c>
       <c r="L14" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M14" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N14" s="5">
+        <v>0</v>
+      </c>
+      <c r="O14" s="5">
+        <v>100</v>
+      </c>
+      <c r="P14" s="5">
         <v>10</v>
       </c>
-      <c r="O14" s="5">
-        <v>100</v>
-      </c>
-      <c r="P14" s="5">
-        <v>100</v>
-      </c>
       <c r="Q14" s="5">
         <v>100</v>
       </c>
       <c r="R14" s="5">
+        <v>100</v>
+      </c>
+      <c r="S14" s="5">
+        <v>100</v>
+      </c>
+      <c r="T14" s="5">
         <v>5</v>
       </c>
-      <c r="S14" s="5">
+      <c r="U14" s="5">
         <v>150</v>
       </c>
-      <c r="T14" s="5">
-        <v>0</v>
-      </c>
-      <c r="U14" s="5">
-        <v>0</v>
-      </c>
       <c r="V14" s="5">
         <v>0</v>
       </c>
@@ -3473,8 +3637,14 @@
       <c r="AH14" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI14" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ14" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A15" s="5">
         <f t="shared" si="0"/>
         <v>105</v>
@@ -3499,48 +3669,44 @@
         <v>20605</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="5">
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5">
         <v>50</v>
       </c>
-      <c r="I15" s="5">
-        <v>1</v>
-      </c>
-      <c r="J15" s="5">
-        <v>1</v>
-      </c>
       <c r="K15" s="5">
         <v>1</v>
       </c>
       <c r="L15" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M15" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N15" s="5">
+        <v>0</v>
+      </c>
+      <c r="O15" s="5">
+        <v>100</v>
+      </c>
+      <c r="P15" s="5">
         <v>10</v>
       </c>
-      <c r="O15" s="5">
-        <v>100</v>
-      </c>
-      <c r="P15" s="5">
-        <v>100</v>
-      </c>
       <c r="Q15" s="5">
         <v>100</v>
       </c>
       <c r="R15" s="5">
+        <v>100</v>
+      </c>
+      <c r="S15" s="5">
+        <v>100</v>
+      </c>
+      <c r="T15" s="5">
         <v>5</v>
       </c>
-      <c r="S15" s="5">
+      <c r="U15" s="5">
         <v>150</v>
       </c>
-      <c r="T15" s="5">
-        <v>0</v>
-      </c>
-      <c r="U15" s="5">
-        <v>0</v>
-      </c>
       <c r="V15" s="5">
         <v>0</v>
       </c>
@@ -3580,8 +3746,14 @@
       <c r="AH15" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI15" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ15" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A16" s="5">
         <f t="shared" si="0"/>
         <v>106</v>
@@ -3606,48 +3778,44 @@
         <v>20606</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="5">
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5">
         <v>60</v>
       </c>
-      <c r="I16" s="5">
-        <v>1</v>
-      </c>
-      <c r="J16" s="5">
-        <v>1</v>
-      </c>
       <c r="K16" s="5">
         <v>1</v>
       </c>
       <c r="L16" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M16" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N16" s="5">
+        <v>0</v>
+      </c>
+      <c r="O16" s="5">
+        <v>100</v>
+      </c>
+      <c r="P16" s="5">
         <v>10</v>
       </c>
-      <c r="O16" s="5">
-        <v>100</v>
-      </c>
-      <c r="P16" s="5">
-        <v>100</v>
-      </c>
       <c r="Q16" s="5">
         <v>100</v>
       </c>
       <c r="R16" s="5">
+        <v>100</v>
+      </c>
+      <c r="S16" s="5">
+        <v>100</v>
+      </c>
+      <c r="T16" s="5">
         <v>5</v>
       </c>
-      <c r="S16" s="5">
+      <c r="U16" s="5">
         <v>150</v>
       </c>
-      <c r="T16" s="5">
-        <v>0</v>
-      </c>
-      <c r="U16" s="5">
-        <v>0</v>
-      </c>
       <c r="V16" s="5">
         <v>0</v>
       </c>
@@ -3687,8 +3855,14 @@
       <c r="AH16" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI16" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ16" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5">
         <f t="shared" si="0"/>
         <v>107</v>
@@ -3713,48 +3887,44 @@
         <v>20607</v>
       </c>
       <c r="G17" s="5"/>
-      <c r="H17" s="5">
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
+      <c r="J17" s="5">
         <v>70</v>
       </c>
-      <c r="I17" s="5">
-        <v>1</v>
-      </c>
-      <c r="J17" s="5">
-        <v>1</v>
-      </c>
       <c r="K17" s="5">
         <v>1</v>
       </c>
       <c r="L17" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M17" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N17" s="5">
+        <v>0</v>
+      </c>
+      <c r="O17" s="5">
+        <v>100</v>
+      </c>
+      <c r="P17" s="5">
         <v>10</v>
       </c>
-      <c r="O17" s="5">
-        <v>100</v>
-      </c>
-      <c r="P17" s="5">
-        <v>100</v>
-      </c>
       <c r="Q17" s="5">
         <v>100</v>
       </c>
       <c r="R17" s="5">
+        <v>100</v>
+      </c>
+      <c r="S17" s="5">
+        <v>100</v>
+      </c>
+      <c r="T17" s="5">
         <v>5</v>
       </c>
-      <c r="S17" s="5">
+      <c r="U17" s="5">
         <v>150</v>
       </c>
-      <c r="T17" s="5">
-        <v>0</v>
-      </c>
-      <c r="U17" s="5">
-        <v>0</v>
-      </c>
       <c r="V17" s="5">
         <v>0</v>
       </c>
@@ -3794,8 +3964,14 @@
       <c r="AH17" s="5">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:34" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="AI17" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:36" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A18" s="5">
         <f t="shared" si="0"/>
         <v>108</v>
@@ -3820,48 +3996,44 @@
         <v>20608</v>
       </c>
       <c r="G18" s="5"/>
-      <c r="H18" s="5">
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
+      <c r="J18" s="5">
         <v>80</v>
       </c>
-      <c r="I18" s="5">
-        <v>1</v>
-      </c>
-      <c r="J18" s="5">
-        <v>1</v>
-      </c>
       <c r="K18" s="5">
         <v>1</v>
       </c>
       <c r="L18" s="5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18" s="5">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="N18" s="5">
+        <v>0</v>
+      </c>
+      <c r="O18" s="5">
+        <v>100</v>
+      </c>
+      <c r="P18" s="5">
         <v>10</v>
       </c>
-      <c r="O18" s="5">
-        <v>100</v>
-      </c>
-      <c r="P18" s="5">
-        <v>100</v>
-      </c>
       <c r="Q18" s="5">
         <v>100</v>
       </c>
       <c r="R18" s="5">
+        <v>100</v>
+      </c>
+      <c r="S18" s="5">
+        <v>100</v>
+      </c>
+      <c r="T18" s="5">
         <v>5</v>
       </c>
-      <c r="S18" s="5">
+      <c r="U18" s="5">
         <v>150</v>
       </c>
-      <c r="T18" s="5">
-        <v>0</v>
-      </c>
-      <c r="U18" s="5">
-        <v>0</v>
-      </c>
       <c r="V18" s="5">
         <v>0</v>
       </c>
@@ -3899,6 +4071,12 @@
         <v>0</v>
       </c>
       <c r="AH18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AI18" s="5">
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="5">
         <v>0</v>
       </c>
     </row>
@@ -3911,10 +4089,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D37"/>
+  <dimension ref="A1:D39"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.375" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -4062,30 +4240,30 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>6</v>
+        <v>138</v>
       </c>
       <c r="C13" s="13" t="s">
-        <v>35</v>
+        <v>141</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>77</v>
+        <v>143</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>0</v>
+        <v>140</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>7</v>
+        <v>139</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>36</v>
+        <v>142</v>
       </c>
       <c r="D14" s="12" t="s">
-        <v>78</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -4093,27 +4271,27 @@
         <v>0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D15" s="12" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D16" s="12" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -4121,69 +4299,69 @@
         <v>0</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="12" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="54" x14ac:dyDescent="0.25">
+      <c r="A18" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="D18" s="12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="13" t="s">
+      <c r="C19" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="D17" s="12" t="s">
+      <c r="D19" s="12" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B18" s="2" t="s">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C18" s="13" t="s">
+      <c r="C20" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="D18" s="12" t="s">
+      <c r="D20" s="12" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A19" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B19" s="2" t="s">
+    <row r="21" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A21" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C19" s="13" t="s">
+      <c r="C21" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D21" s="12" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="54" x14ac:dyDescent="0.25">
-      <c r="A20" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>42</v>
-      </c>
-      <c r="D20" s="12" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="54" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="12" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="54" x14ac:dyDescent="0.25">
@@ -4191,41 +4369,41 @@
         <v>0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D22" s="12" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" s="13" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D23" s="12" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="54" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D24" s="12" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
@@ -4233,27 +4411,27 @@
         <v>0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C25" s="13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D25" s="12" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="27" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C26" s="13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D26" s="12" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
@@ -4261,13 +4439,13 @@
         <v>0</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C27" s="13" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D27" s="12" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
@@ -4275,97 +4453,97 @@
         <v>0</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="D28" s="12" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C29" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="D29" s="12" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="13" t="s">
+      <c r="C30" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D30" s="12" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B29" s="2" t="s">
+    <row r="31" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="13" t="s">
+      <c r="C31" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="D29" s="12" t="s">
+      <c r="D31" s="12" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B30" s="2" t="s">
+    <row r="32" spans="1:4" ht="40.5" x14ac:dyDescent="0.25">
+      <c r="A32" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="13" t="s">
+      <c r="C32" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="D30" s="12" t="s">
+      <c r="D32" s="12" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="31" spans="1:4" ht="27" x14ac:dyDescent="0.25">
-      <c r="A31" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B31" s="2" t="s">
+    <row r="33" spans="1:4" ht="27" x14ac:dyDescent="0.25">
+      <c r="A33" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C31" s="13" t="s">
+      <c r="C33" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="D31" s="12" t="s">
+      <c r="D33" s="12" t="s">
         <v>93</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>54</v>
-      </c>
-      <c r="D32" s="12" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C33" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="12" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D34" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
@@ -4373,40 +4551,68 @@
         <v>2</v>
       </c>
       <c r="B35" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="D36" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C35" s="13" t="s">
+      <c r="C37" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="12" t="s">
+      <c r="D37" s="12" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
-      <c r="A36" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B36" s="2" t="s">
+    <row r="38" spans="1:4" ht="94.5" x14ac:dyDescent="0.25">
+      <c r="A38" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C36" s="13" t="s">
+      <c r="C38" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D38" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="108" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B37" s="2" t="s">
+    <row r="39" spans="1:4" ht="108" x14ac:dyDescent="0.25">
+      <c r="A39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C37" s="13" t="s">
+      <c r="C39" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D37" s="12" t="s">
+      <c r="D39" s="12" t="s">
         <v>99</v>
       </c>
     </row>

--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -1063,10 +1063,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AG11"/>
+  <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F4" sqref="A1:AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1328,7 +1328,7 @@
         <v>100</v>
       </c>
       <c r="H3" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" s="5">
         <v>1</v>
@@ -1429,7 +1429,7 @@
         <v>10</v>
       </c>
       <c r="H4" s="5">
-        <v>5</v>
+        <v>101</v>
       </c>
       <c r="I4" s="5">
         <v>1</v>
@@ -1530,7 +1530,7 @@
         <v>20</v>
       </c>
       <c r="H5" s="5">
-        <v>1</v>
+        <v>102</v>
       </c>
       <c r="I5" s="5">
         <v>1</v>
@@ -1631,7 +1631,7 @@
         <v>30</v>
       </c>
       <c r="H6" s="5">
-        <v>1</v>
+        <v>103</v>
       </c>
       <c r="I6" s="5">
         <v>1</v>
@@ -1732,7 +1732,7 @@
         <v>40</v>
       </c>
       <c r="H7" s="5">
-        <v>1</v>
+        <v>104</v>
       </c>
       <c r="I7" s="5">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>50</v>
       </c>
       <c r="H8" s="5">
-        <v>1</v>
+        <v>105</v>
       </c>
       <c r="I8" s="5">
         <v>1</v>
@@ -1934,7 +1934,7 @@
         <v>60</v>
       </c>
       <c r="H9" s="5">
-        <v>1</v>
+        <v>106</v>
       </c>
       <c r="I9" s="5">
         <v>1</v>
@@ -2035,7 +2035,7 @@
         <v>70</v>
       </c>
       <c r="H10" s="5">
-        <v>1</v>
+        <v>107</v>
       </c>
       <c r="I10" s="5">
         <v>1</v>
@@ -2136,7 +2136,7 @@
         <v>80</v>
       </c>
       <c r="H11" s="5">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="I11" s="5">
         <v>1</v>
@@ -2211,6 +2211,208 @@
         <v>0</v>
       </c>
       <c r="AG11" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A12" s="17">
+        <v>109</v>
+      </c>
+      <c r="B12" s="18">
+        <v>20309</v>
+      </c>
+      <c r="C12" s="18">
+        <v>20609</v>
+      </c>
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="5">
+        <v>90</v>
+      </c>
+      <c r="H12" s="5">
+        <v>109</v>
+      </c>
+      <c r="I12" s="5">
+        <v>1</v>
+      </c>
+      <c r="J12" s="5">
+        <v>1</v>
+      </c>
+      <c r="K12" s="5">
+        <v>0</v>
+      </c>
+      <c r="L12" s="5">
+        <v>100</v>
+      </c>
+      <c r="M12" s="5">
+        <v>10</v>
+      </c>
+      <c r="N12" s="5">
+        <v>100</v>
+      </c>
+      <c r="O12" s="5">
+        <v>100</v>
+      </c>
+      <c r="P12" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q12" s="5">
+        <v>5</v>
+      </c>
+      <c r="R12" s="5">
+        <v>150</v>
+      </c>
+      <c r="S12" s="5">
+        <v>0</v>
+      </c>
+      <c r="T12" s="5">
+        <v>0</v>
+      </c>
+      <c r="U12" s="5">
+        <v>0</v>
+      </c>
+      <c r="V12" s="5">
+        <v>0</v>
+      </c>
+      <c r="W12" s="5">
+        <v>0</v>
+      </c>
+      <c r="X12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF12" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A13" s="17">
+        <v>110</v>
+      </c>
+      <c r="B13" s="18">
+        <v>20310</v>
+      </c>
+      <c r="C13" s="18">
+        <v>20610</v>
+      </c>
+      <c r="D13" s="18">
+        <v>0</v>
+      </c>
+      <c r="E13" s="18">
+        <v>0</v>
+      </c>
+      <c r="F13" s="18">
+        <v>0</v>
+      </c>
+      <c r="G13" s="5">
+        <v>200</v>
+      </c>
+      <c r="H13" s="5">
+        <v>110</v>
+      </c>
+      <c r="I13" s="5">
+        <v>1</v>
+      </c>
+      <c r="J13" s="5">
+        <v>1</v>
+      </c>
+      <c r="K13" s="5">
+        <v>0</v>
+      </c>
+      <c r="L13" s="5">
+        <v>100</v>
+      </c>
+      <c r="M13" s="5">
+        <v>10</v>
+      </c>
+      <c r="N13" s="5">
+        <v>100</v>
+      </c>
+      <c r="O13" s="5">
+        <v>100</v>
+      </c>
+      <c r="P13" s="5">
+        <v>100</v>
+      </c>
+      <c r="Q13" s="5">
+        <v>5</v>
+      </c>
+      <c r="R13" s="5">
+        <v>150</v>
+      </c>
+      <c r="S13" s="5">
+        <v>0</v>
+      </c>
+      <c r="T13" s="5">
+        <v>0</v>
+      </c>
+      <c r="U13" s="5">
+        <v>0</v>
+      </c>
+      <c r="V13" s="5">
+        <v>0</v>
+      </c>
+      <c r="W13" s="5">
+        <v>0</v>
+      </c>
+      <c r="X13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="5">
+        <v>0</v>
+      </c>
+      <c r="Z13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AA13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AB13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AC13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AD13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AE13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AF13" s="5">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="5">
         <v>0</v>
       </c>
     </row>

--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -1066,7 +1066,7 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="A1:AG13"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1527,7 +1527,7 @@
         <v>0</v>
       </c>
       <c r="G5" s="5">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="H5" s="5">
         <v>102</v>
@@ -1628,7 +1628,7 @@
         <v>0</v>
       </c>
       <c r="G6" s="5">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="H6" s="5">
         <v>103</v>
@@ -1729,7 +1729,7 @@
         <v>0</v>
       </c>
       <c r="G7" s="5">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="H7" s="5">
         <v>104</v>
@@ -1830,7 +1830,7 @@
         <v>0</v>
       </c>
       <c r="G8" s="5">
-        <v>50</v>
+        <v>30</v>
       </c>
       <c r="H8" s="5">
         <v>105</v>
@@ -1931,7 +1931,7 @@
         <v>0</v>
       </c>
       <c r="G9" s="5">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="H9" s="5">
         <v>106</v>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
       <c r="G10" s="5">
-        <v>70</v>
+        <v>40</v>
       </c>
       <c r="H10" s="5">
         <v>107</v>
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="G11" s="5">
-        <v>80</v>
+        <v>45</v>
       </c>
       <c r="H11" s="5">
         <v>108</v>
@@ -2234,7 +2234,7 @@
         <v>0</v>
       </c>
       <c r="G12" s="5">
-        <v>90</v>
+        <v>50</v>
       </c>
       <c r="H12" s="5">
         <v>109</v>

--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="153">
   <si>
     <t>int</t>
   </si>
@@ -506,6 +506,33 @@
   </si>
   <si>
     <t>char2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Player</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy011</t>
+  </si>
+  <si>
+    <t>Enemy011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy011</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy021</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enemy021</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -1066,7 +1093,7 @@
   <dimension ref="A1:AG13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1220,8 +1247,8 @@
       <c r="E2" s="18" t="s">
         <v>136</v>
       </c>
-      <c r="F2" s="18">
-        <v>0</v>
+      <c r="F2" s="18" t="s">
+        <v>146</v>
       </c>
       <c r="G2" s="5">
         <v>100</v>
@@ -1422,8 +1449,8 @@
       <c r="E4" s="18">
         <v>0</v>
       </c>
-      <c r="F4" s="18">
-        <v>0</v>
+      <c r="F4" s="18" t="s">
+        <v>152</v>
       </c>
       <c r="G4" s="5">
         <v>10</v>
@@ -1523,8 +1550,8 @@
       <c r="E5" s="18">
         <v>0</v>
       </c>
-      <c r="F5" s="18">
-        <v>0</v>
+      <c r="F5" s="18" t="s">
+        <v>149</v>
       </c>
       <c r="G5" s="5">
         <v>15</v>
@@ -1624,8 +1651,8 @@
       <c r="E6" s="18">
         <v>0</v>
       </c>
-      <c r="F6" s="18">
-        <v>0</v>
+      <c r="F6" s="18" t="s">
+        <v>150</v>
       </c>
       <c r="G6" s="5">
         <v>20</v>
@@ -1725,8 +1752,8 @@
       <c r="E7" s="18">
         <v>0</v>
       </c>
-      <c r="F7" s="18">
-        <v>0</v>
+      <c r="F7" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="G7" s="5">
         <v>25</v>
@@ -1826,8 +1853,8 @@
       <c r="E8" s="18">
         <v>0</v>
       </c>
-      <c r="F8" s="18">
-        <v>0</v>
+      <c r="F8" s="18" t="s">
+        <v>151</v>
       </c>
       <c r="G8" s="5">
         <v>30</v>
@@ -1927,8 +1954,8 @@
       <c r="E9" s="18">
         <v>0</v>
       </c>
-      <c r="F9" s="18">
-        <v>0</v>
+      <c r="F9" s="18" t="s">
+        <v>148</v>
       </c>
       <c r="G9" s="5">
         <v>35</v>
@@ -2028,8 +2055,8 @@
       <c r="E10" s="18">
         <v>0</v>
       </c>
-      <c r="F10" s="18">
-        <v>0</v>
+      <c r="F10" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="G10" s="5">
         <v>40</v>
@@ -2129,8 +2156,8 @@
       <c r="E11" s="18">
         <v>0</v>
       </c>
-      <c r="F11" s="18">
-        <v>0</v>
+      <c r="F11" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="G11" s="5">
         <v>45</v>
@@ -2230,8 +2257,8 @@
       <c r="E12" s="18">
         <v>0</v>
       </c>
-      <c r="F12" s="18">
-        <v>0</v>
+      <c r="F12" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="G12" s="5">
         <v>50</v>
@@ -2331,8 +2358,8 @@
       <c r="E13" s="18">
         <v>0</v>
       </c>
-      <c r="F13" s="18">
-        <v>0</v>
+      <c r="F13" s="18" t="s">
+        <v>147</v>
       </c>
       <c r="G13" s="5">
         <v>200</v>

--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="152">
   <si>
     <t>int</t>
   </si>
@@ -521,10 +521,6 @@
   </si>
   <si>
     <t>Enemy011</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enemy021</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -1450,7 +1446,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="18" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="G4" s="5">
         <v>10</v>
@@ -1459,10 +1455,10 @@
         <v>101</v>
       </c>
       <c r="I4" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="J4" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>

--- a/Assets/Excel/002_Character.xlsx
+++ b/Assets/Excel/002_Character.xlsx
@@ -1088,8 +1088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.25" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -1256,7 +1256,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K2" s="5">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>1</v>
       </c>
       <c r="I3" s="5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J3" s="5">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="K3" s="5">
         <v>0</v>
@@ -1455,10 +1455,10 @@
         <v>101</v>
       </c>
       <c r="I4" s="5">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="J4" s="5">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="K4" s="5">
         <v>0</v>
@@ -1556,10 +1556,10 @@
         <v>102</v>
       </c>
       <c r="I5" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J5" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K5" s="5">
         <v>0</v>
@@ -1657,10 +1657,10 @@
         <v>103</v>
       </c>
       <c r="I6" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J6" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K6" s="5">
         <v>0</v>
@@ -1758,10 +1758,10 @@
         <v>104</v>
       </c>
       <c r="I7" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J7" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K7" s="5">
         <v>0</v>
@@ -1859,10 +1859,10 @@
         <v>105</v>
       </c>
       <c r="I8" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J8" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K8" s="5">
         <v>0</v>
@@ -1960,10 +1960,10 @@
         <v>106</v>
       </c>
       <c r="I9" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J9" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K9" s="5">
         <v>0</v>
@@ -2061,10 +2061,10 @@
         <v>107</v>
       </c>
       <c r="I10" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J10" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K10" s="5">
         <v>0</v>
@@ -2162,10 +2162,10 @@
         <v>108</v>
       </c>
       <c r="I11" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J11" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K11" s="5">
         <v>0</v>
@@ -2263,10 +2263,10 @@
         <v>109</v>
       </c>
       <c r="I12" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J12" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K12" s="5">
         <v>0</v>
@@ -2364,10 +2364,10 @@
         <v>110</v>
       </c>
       <c r="I13" s="5">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="J13" s="5">
-        <v>1</v>
+        <v>200</v>
       </c>
       <c r="K13" s="5">
         <v>0</v>
